--- a/SWS.xlsx
+++ b/SWS.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\hp\Desktop\androapp\st\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\hp\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A7F7DEBE-58EE-4CA1-852D-031E727A79E3}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B1942B40-0815-4AA6-8B58-74A7FD8C6051}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" firstSheet="2" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="BON DE PREPARATION" sheetId="1" r:id="rId1"/>
@@ -199,9 +199,6 @@
     <t>CACHET</t>
   </si>
   <si>
-    <t>HAKIM OULD KHESSAL</t>
-  </si>
-  <si>
     <t>ABDERRAHMAN SAADOUN</t>
   </si>
   <si>
@@ -223,9 +220,6 @@
     <t>BACHDJERAH HUSSEIN DEY EL MAGHARIA BOUROUBA</t>
   </si>
   <si>
-    <t>HAMIDANE MUSTAPHA</t>
-  </si>
-  <si>
     <t>ZOUBIRI AMINE</t>
   </si>
   <si>
@@ -233,6 +227,12 @@
   </si>
   <si>
     <t>08 07 2023</t>
+  </si>
+  <si>
+    <t>DEBAGH OUSSAMA</t>
+  </si>
+  <si>
+    <t>SEBAIHI SIDALI</t>
   </si>
 </sst>
 </file>
@@ -1111,1447 +1111,7 @@
     <cellStyle name="Milliers" xfId="1" builtinId="3"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="591">
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="2" tint="-9.9948118533890809E-2"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="2" tint="-9.9948118533890809E-2"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="2" tint="-9.9948118533890809E-2"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="2" tint="-9.9948118533890809E-2"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="2" tint="-9.9948118533890809E-2"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="2" tint="-9.9948118533890809E-2"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="2" tint="-9.9948118533890809E-2"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="2" tint="-9.9948118533890809E-2"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="2" tint="-9.9948118533890809E-2"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="2" tint="-9.9948118533890809E-2"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="2" tint="-9.9948118533890809E-2"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="2" tint="-9.9948118533890809E-2"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="2" tint="-9.9948118533890809E-2"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="2" tint="-9.9948118533890809E-2"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="2" tint="-9.9948118533890809E-2"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="2" tint="-9.9948118533890809E-2"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="2" tint="-9.9948118533890809E-2"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="2" tint="-9.9948118533890809E-2"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="2" tint="-9.9948118533890809E-2"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="2" tint="-9.9948118533890809E-2"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="2" tint="-9.9948118533890809E-2"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="2" tint="-9.9948118533890809E-2"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="2" tint="-9.9948118533890809E-2"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="2" tint="-9.9948118533890809E-2"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="2" tint="-9.9948118533890809E-2"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="2" tint="-9.9948118533890809E-2"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="2" tint="-9.9948118533890809E-2"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="2" tint="-9.9948118533890809E-2"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="2" tint="-9.9948118533890809E-2"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="2" tint="-9.9948118533890809E-2"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="2" tint="-9.9948118533890809E-2"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="2" tint="-9.9948118533890809E-2"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="2" tint="-9.9948118533890809E-2"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="2" tint="-9.9948118533890809E-2"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="2" tint="-9.9948118533890809E-2"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="2" tint="-9.9948118533890809E-2"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="2" tint="-9.9948118533890809E-2"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="2" tint="-9.9948118533890809E-2"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="2" tint="-9.9948118533890809E-2"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="2" tint="-9.9948118533890809E-2"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="2" tint="-9.9948118533890809E-2"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="2" tint="-9.9948118533890809E-2"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="2" tint="-9.9948118533890809E-2"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="2" tint="-9.9948118533890809E-2"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="2" tint="-9.9948118533890809E-2"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="2" tint="-9.9948118533890809E-2"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="2" tint="-9.9948118533890809E-2"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="2" tint="-9.9948118533890809E-2"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="2" tint="-9.9948118533890809E-2"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="2" tint="-9.9948118533890809E-2"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="2" tint="-9.9948118533890809E-2"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="2" tint="-9.9948118533890809E-2"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="2" tint="-9.9948118533890809E-2"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="2" tint="-9.9948118533890809E-2"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="2" tint="-9.9948118533890809E-2"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="2" tint="-9.9948118533890809E-2"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="2" tint="-9.9948118533890809E-2"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="2" tint="-9.9948118533890809E-2"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="2" tint="-9.9948118533890809E-2"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="2" tint="-9.9948118533890809E-2"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="2" tint="-9.9948118533890809E-2"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="2" tint="-9.9948118533890809E-2"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="2" tint="-9.9948118533890809E-2"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="2" tint="-9.9948118533890809E-2"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="2" tint="-9.9948118533890809E-2"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="2" tint="-9.9948118533890809E-2"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="2" tint="-9.9948118533890809E-2"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="2" tint="-9.9948118533890809E-2"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="2" tint="-9.9948118533890809E-2"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="2" tint="-9.9948118533890809E-2"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="2" tint="-9.9948118533890809E-2"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="2" tint="-9.9948118533890809E-2"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="2" tint="-9.9948118533890809E-2"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="2" tint="-9.9948118533890809E-2"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="2" tint="-9.9948118533890809E-2"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="2" tint="-9.9948118533890809E-2"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="2" tint="-9.9948118533890809E-2"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="2" tint="-9.9948118533890809E-2"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="2" tint="-9.9948118533890809E-2"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="2" tint="-9.9948118533890809E-2"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="2" tint="-9.9948118533890809E-2"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="2" tint="-9.9948118533890809E-2"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="2" tint="-9.9948118533890809E-2"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="2" tint="-9.9948118533890809E-2"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="2" tint="-9.9948118533890809E-2"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="2" tint="-9.9948118533890809E-2"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="2" tint="-9.9948118533890809E-2"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="2" tint="-9.9948118533890809E-2"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="2" tint="-9.9948118533890809E-2"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="2" tint="-9.9948118533890809E-2"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="2" tint="-9.9948118533890809E-2"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="2" tint="-9.9948118533890809E-2"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="2" tint="-9.9948118533890809E-2"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="2" tint="-9.9948118533890809E-2"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="2" tint="-9.9948118533890809E-2"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="2" tint="-9.9948118533890809E-2"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="2" tint="-9.9948118533890809E-2"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="2" tint="-9.9948118533890809E-2"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="2" tint="-9.9948118533890809E-2"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="2" tint="-9.9948118533890809E-2"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="2" tint="-9.9948118533890809E-2"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="2" tint="-9.9948118533890809E-2"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="2" tint="-9.9948118533890809E-2"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="2" tint="-9.9948118533890809E-2"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="2" tint="-9.9948118533890809E-2"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="2" tint="-9.9948118533890809E-2"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="2" tint="-9.9948118533890809E-2"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="2" tint="-9.9948118533890809E-2"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="2" tint="-9.9948118533890809E-2"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="2" tint="-9.9948118533890809E-2"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="2" tint="-9.9948118533890809E-2"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="2" tint="-9.9948118533890809E-2"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="2" tint="-9.9948118533890809E-2"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="2" tint="-9.9948118533890809E-2"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="2" tint="-9.9948118533890809E-2"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="2" tint="-9.9948118533890809E-2"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="2" tint="-9.9948118533890809E-2"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="2" tint="-9.9948118533890809E-2"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="2" tint="-9.9948118533890809E-2"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="2" tint="-9.9948118533890809E-2"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
-        </patternFill>
-      </fill>
-    </dxf>
+  <dxfs count="411">
     <dxf>
       <fill>
         <patternFill>
@@ -6121,8 +4681,8 @@
   </sheetPr>
   <dimension ref="A1:G57"/>
   <sheetViews>
-    <sheetView topLeftCell="A9" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A13" sqref="A12:XFD13"/>
+    <sheetView tabSelected="1" topLeftCell="A50" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="A57" sqref="A57:B57"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -6182,7 +4742,7 @@
         <v>37</v>
       </c>
       <c r="B7" s="11" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
     </row>
     <row r="8" spans="1:6" s="1" customFormat="1" ht="26.25" x14ac:dyDescent="0.4">
@@ -6190,7 +4750,7 @@
         <v>38</v>
       </c>
       <c r="B8" s="11" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
     </row>
     <row r="9" spans="1:6" s="1" customFormat="1" ht="26.25" x14ac:dyDescent="0.4">
@@ -6198,7 +4758,7 @@
         <v>39</v>
       </c>
       <c r="B9" s="18" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
     </row>
     <row r="11" spans="1:6" ht="24" x14ac:dyDescent="0.35">
@@ -6836,7 +5396,7 @@
         <v>2917788</v>
       </c>
       <c r="B40" s="29" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="C40" s="36">
         <v>4</v>
@@ -6858,7 +5418,7 @@
         <v>2918203</v>
       </c>
       <c r="B41" s="29" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="C41" s="36">
         <v>4</v>
@@ -6880,7 +5440,7 @@
         <v>2922764</v>
       </c>
       <c r="B42" s="29" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="C42" s="36">
         <v>4</v>
@@ -6902,7 +5462,7 @@
         <v>2922795</v>
       </c>
       <c r="B43" s="29" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="C43" s="36">
         <v>10</v>
@@ -7019,7 +5579,7 @@
     <row r="53" spans="1:7" ht="10.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="54" spans="1:7" ht="28.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A54" s="52" t="s">
-        <v>51</v>
+        <v>61</v>
       </c>
       <c r="B54" s="53"/>
       <c r="C54" s="22"/>
@@ -7030,7 +5590,7 @@
     </row>
     <row r="55" spans="1:7" ht="28.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A55" s="52" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="B55" s="53"/>
       <c r="C55" s="22"/>
@@ -7041,7 +5601,7 @@
     </row>
     <row r="56" spans="1:7" ht="28.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A56" s="52" t="s">
-        <v>59</v>
+        <v>62</v>
       </c>
       <c r="B56" s="53"/>
       <c r="C56" s="49"/>
@@ -7052,7 +5612,7 @@
     </row>
     <row r="57" spans="1:7" ht="28.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A57" s="52" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="B57" s="53"/>
       <c r="C57" s="22"/>
@@ -7081,46 +5641,46 @@
     <mergeCell ref="F56:G56"/>
   </mergeCells>
   <conditionalFormatting sqref="D44">
-    <cfRule type="cellIs" dxfId="587" priority="28" operator="greaterThan">
-      <formula>0</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="586" priority="29" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="410" priority="28" operator="greaterThan">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="409" priority="29" operator="greaterThan">
       <formula>10</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="585" priority="30" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="408" priority="30" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E12:E43">
-    <cfRule type="cellIs" dxfId="578" priority="16" operator="greaterThan">
-      <formula>0</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="577" priority="17" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="407" priority="16" operator="greaterThan">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="406" priority="17" operator="greaterThan">
       <formula>10</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="576" priority="18" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="405" priority="18" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D47:D50">
-    <cfRule type="cellIs" dxfId="575" priority="13" operator="greaterThan">
-      <formula>0</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="574" priority="14" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="404" priority="13" operator="greaterThan">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="403" priority="14" operator="greaterThan">
       <formula>10</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="573" priority="15" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="402" priority="15" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D12:D43">
-    <cfRule type="cellIs" dxfId="59" priority="1" operator="greaterThan">
-      <formula>0</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="58" priority="2" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="401" priority="1" operator="greaterThan">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="400" priority="2" operator="greaterThan">
       <formula>10</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="57" priority="3" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="399" priority="3" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
@@ -7136,7 +5696,7 @@
   </sheetPr>
   <dimension ref="A1:F50"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView topLeftCell="A10" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="A39" sqref="A39:XFD39"/>
     </sheetView>
   </sheetViews>
@@ -7774,7 +6334,7 @@
         <v>2917788</v>
       </c>
       <c r="B40" s="29" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="C40" s="36">
         <v>4</v>
@@ -7793,7 +6353,7 @@
         <v>2918203</v>
       </c>
       <c r="B41" s="29" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="C41" s="36">
         <v>4</v>
@@ -7812,7 +6372,7 @@
         <v>2922764</v>
       </c>
       <c r="B42" s="29" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="C42" s="36">
         <v>4</v>
@@ -7831,7 +6391,7 @@
         <v>2922795</v>
       </c>
       <c r="B43" s="29" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="C43" s="36">
         <v>10</v>
@@ -7924,79 +6484,79 @@
     <mergeCell ref="E7:F7"/>
   </mergeCells>
   <conditionalFormatting sqref="D44">
-    <cfRule type="cellIs" dxfId="353" priority="34" operator="greaterThan">
-      <formula>0</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="352" priority="35" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="230" priority="34" operator="greaterThan">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="229" priority="35" operator="greaterThan">
       <formula>10</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="351" priority="36" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="228" priority="36" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E12:E43">
-    <cfRule type="cellIs" dxfId="344" priority="22" operator="greaterThan">
-      <formula>0</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="343" priority="23" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="227" priority="22" operator="greaterThan">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="226" priority="23" operator="greaterThan">
       <formula>10</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="342" priority="24" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="225" priority="24" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D50">
-    <cfRule type="cellIs" dxfId="341" priority="4" operator="greaterThan">
-      <formula>0</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="340" priority="5" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="224" priority="4" operator="greaterThan">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="223" priority="5" operator="greaterThan">
       <formula>10</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="339" priority="6" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="222" priority="6" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D47:D48 D50">
-    <cfRule type="cellIs" dxfId="338" priority="13" operator="greaterThan">
-      <formula>0</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="337" priority="14" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="221" priority="13" operator="greaterThan">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="220" priority="14" operator="greaterThan">
       <formula>10</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="336" priority="15" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="219" priority="15" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D49">
-    <cfRule type="cellIs" dxfId="335" priority="10" operator="greaterThan">
-      <formula>0</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="334" priority="11" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="218" priority="10" operator="greaterThan">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="217" priority="11" operator="greaterThan">
       <formula>10</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="333" priority="12" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="216" priority="12" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D49">
-    <cfRule type="cellIs" dxfId="332" priority="7" operator="greaterThan">
-      <formula>0</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="331" priority="8" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="215" priority="7" operator="greaterThan">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="214" priority="8" operator="greaterThan">
       <formula>10</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="330" priority="9" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="213" priority="9" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D12:D43">
-    <cfRule type="cellIs" dxfId="26" priority="1" operator="greaterThan">
-      <formula>0</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="25" priority="2" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="212" priority="1" operator="greaterThan">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="211" priority="2" operator="greaterThan">
       <formula>10</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="24" priority="3" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="210" priority="3" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
@@ -8009,7 +6569,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0A00-000000000000}">
   <dimension ref="A1:F50"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView topLeftCell="A4" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="A39" sqref="A39:XFD39"/>
     </sheetView>
   </sheetViews>
@@ -8647,7 +7207,7 @@
         <v>2917788</v>
       </c>
       <c r="B40" s="29" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="C40" s="36">
         <v>4</v>
@@ -8666,7 +7226,7 @@
         <v>2918203</v>
       </c>
       <c r="B41" s="29" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="C41" s="36">
         <v>4</v>
@@ -8685,7 +7245,7 @@
         <v>2922764</v>
       </c>
       <c r="B42" s="29" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="C42" s="36">
         <v>4</v>
@@ -8704,7 +7264,7 @@
         <v>2922795</v>
       </c>
       <c r="B43" s="29" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="C43" s="36">
         <v>10</v>
@@ -8797,79 +7357,79 @@
     <mergeCell ref="E7:F7"/>
   </mergeCells>
   <conditionalFormatting sqref="D44">
-    <cfRule type="cellIs" dxfId="326" priority="34" operator="greaterThan">
-      <formula>0</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="325" priority="35" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="209" priority="34" operator="greaterThan">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="208" priority="35" operator="greaterThan">
       <formula>10</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="324" priority="36" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="207" priority="36" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E12:E43">
-    <cfRule type="cellIs" dxfId="317" priority="22" operator="greaterThan">
-      <formula>0</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="316" priority="23" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="206" priority="22" operator="greaterThan">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="205" priority="23" operator="greaterThan">
       <formula>10</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="315" priority="24" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="204" priority="24" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D50">
-    <cfRule type="cellIs" dxfId="314" priority="4" operator="greaterThan">
-      <formula>0</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="313" priority="5" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="203" priority="4" operator="greaterThan">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="202" priority="5" operator="greaterThan">
       <formula>10</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="312" priority="6" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="201" priority="6" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D47:D48 D50">
-    <cfRule type="cellIs" dxfId="311" priority="13" operator="greaterThan">
-      <formula>0</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="310" priority="14" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="200" priority="13" operator="greaterThan">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="199" priority="14" operator="greaterThan">
       <formula>10</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="309" priority="15" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="198" priority="15" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D49">
-    <cfRule type="cellIs" dxfId="308" priority="10" operator="greaterThan">
-      <formula>0</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="307" priority="11" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="197" priority="10" operator="greaterThan">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="196" priority="11" operator="greaterThan">
       <formula>10</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="306" priority="12" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="195" priority="12" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D49">
-    <cfRule type="cellIs" dxfId="305" priority="7" operator="greaterThan">
-      <formula>0</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="304" priority="8" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="194" priority="7" operator="greaterThan">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="193" priority="8" operator="greaterThan">
       <formula>10</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="303" priority="9" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="192" priority="9" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D12:D43">
-    <cfRule type="cellIs" dxfId="29" priority="1" operator="greaterThan">
-      <formula>0</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="28" priority="2" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="191" priority="1" operator="greaterThan">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="190" priority="2" operator="greaterThan">
       <formula>10</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="27" priority="3" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="189" priority="3" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
@@ -8882,7 +7442,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0B00-000000000000}">
   <dimension ref="A1:F50"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A11" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView topLeftCell="A11" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="A39" sqref="A39:XFD39"/>
     </sheetView>
   </sheetViews>
@@ -9520,7 +8080,7 @@
         <v>2917788</v>
       </c>
       <c r="B40" s="29" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="C40" s="36">
         <v>4</v>
@@ -9539,7 +8099,7 @@
         <v>2918203</v>
       </c>
       <c r="B41" s="29" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="C41" s="36">
         <v>4</v>
@@ -9558,7 +8118,7 @@
         <v>2922764</v>
       </c>
       <c r="B42" s="29" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="C42" s="36">
         <v>4</v>
@@ -9577,7 +8137,7 @@
         <v>2922795</v>
       </c>
       <c r="B43" s="29" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="C43" s="36">
         <v>10</v>
@@ -9670,79 +8230,79 @@
     <mergeCell ref="E7:F7"/>
   </mergeCells>
   <conditionalFormatting sqref="D44">
-    <cfRule type="cellIs" dxfId="299" priority="34" operator="greaterThan">
-      <formula>0</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="298" priority="35" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="188" priority="34" operator="greaterThan">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="187" priority="35" operator="greaterThan">
       <formula>10</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="297" priority="36" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="186" priority="36" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E12:E43">
-    <cfRule type="cellIs" dxfId="290" priority="22" operator="greaterThan">
-      <formula>0</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="289" priority="23" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="185" priority="22" operator="greaterThan">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="184" priority="23" operator="greaterThan">
       <formula>10</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="288" priority="24" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="183" priority="24" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D50">
-    <cfRule type="cellIs" dxfId="287" priority="4" operator="greaterThan">
-      <formula>0</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="286" priority="5" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="182" priority="4" operator="greaterThan">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="181" priority="5" operator="greaterThan">
       <formula>10</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="285" priority="6" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="180" priority="6" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D47:D48 D50">
-    <cfRule type="cellIs" dxfId="284" priority="13" operator="greaterThan">
-      <formula>0</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="283" priority="14" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="179" priority="13" operator="greaterThan">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="178" priority="14" operator="greaterThan">
       <formula>10</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="282" priority="15" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="177" priority="15" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D49">
-    <cfRule type="cellIs" dxfId="281" priority="10" operator="greaterThan">
-      <formula>0</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="280" priority="11" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="176" priority="10" operator="greaterThan">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="175" priority="11" operator="greaterThan">
       <formula>10</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="279" priority="12" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="174" priority="12" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D49">
-    <cfRule type="cellIs" dxfId="278" priority="7" operator="greaterThan">
-      <formula>0</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="277" priority="8" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="173" priority="7" operator="greaterThan">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="172" priority="8" operator="greaterThan">
       <formula>10</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="276" priority="9" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="171" priority="9" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D12:D43">
-    <cfRule type="cellIs" dxfId="32" priority="1" operator="greaterThan">
-      <formula>0</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="31" priority="2" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="170" priority="1" operator="greaterThan">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="169" priority="2" operator="greaterThan">
       <formula>10</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="30" priority="3" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="168" priority="3" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
@@ -9758,7 +8318,7 @@
   </sheetPr>
   <dimension ref="A1:F50"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A5" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView topLeftCell="A5" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="A39" sqref="A39:XFD39"/>
     </sheetView>
   </sheetViews>
@@ -10394,7 +8954,7 @@
         <v>2917788</v>
       </c>
       <c r="B40" s="29" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="C40" s="36">
         <v>4</v>
@@ -10413,7 +8973,7 @@
         <v>2918203</v>
       </c>
       <c r="B41" s="29" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="C41" s="36">
         <v>4</v>
@@ -10432,7 +8992,7 @@
         <v>2922764</v>
       </c>
       <c r="B42" s="29" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="C42" s="36">
         <v>4</v>
@@ -10451,7 +9011,7 @@
         <v>2922795</v>
       </c>
       <c r="B43" s="29" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="C43" s="36">
         <v>10</v>
@@ -10543,79 +9103,79 @@
     <mergeCell ref="A5:F5"/>
   </mergeCells>
   <conditionalFormatting sqref="D44">
-    <cfRule type="cellIs" dxfId="272" priority="34" operator="greaterThan">
-      <formula>0</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="271" priority="35" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="167" priority="34" operator="greaterThan">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="166" priority="35" operator="greaterThan">
       <formula>10</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="270" priority="36" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="165" priority="36" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E12:E43">
-    <cfRule type="cellIs" dxfId="263" priority="22" operator="greaterThan">
-      <formula>0</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="262" priority="23" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="164" priority="22" operator="greaterThan">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="163" priority="23" operator="greaterThan">
       <formula>10</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="261" priority="24" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="162" priority="24" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D50">
-    <cfRule type="cellIs" dxfId="260" priority="4" operator="greaterThan">
-      <formula>0</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="259" priority="5" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="161" priority="4" operator="greaterThan">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="160" priority="5" operator="greaterThan">
       <formula>10</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="258" priority="6" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="159" priority="6" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D47:D48 D50">
-    <cfRule type="cellIs" dxfId="257" priority="13" operator="greaterThan">
-      <formula>0</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="256" priority="14" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="158" priority="13" operator="greaterThan">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="157" priority="14" operator="greaterThan">
       <formula>10</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="255" priority="15" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="156" priority="15" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D49">
-    <cfRule type="cellIs" dxfId="254" priority="10" operator="greaterThan">
-      <formula>0</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="253" priority="11" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="155" priority="10" operator="greaterThan">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="154" priority="11" operator="greaterThan">
       <formula>10</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="252" priority="12" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="153" priority="12" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D49">
-    <cfRule type="cellIs" dxfId="251" priority="7" operator="greaterThan">
-      <formula>0</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="250" priority="8" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="152" priority="7" operator="greaterThan">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="151" priority="8" operator="greaterThan">
       <formula>10</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="249" priority="9" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="150" priority="9" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D12:D43">
-    <cfRule type="cellIs" dxfId="35" priority="1" operator="greaterThan">
-      <formula>0</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="34" priority="2" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="149" priority="1" operator="greaterThan">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="148" priority="2" operator="greaterThan">
       <formula>10</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="33" priority="3" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="147" priority="3" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
@@ -10628,7 +9188,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0D00-000000000000}">
   <dimension ref="A1:F50"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A8" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView topLeftCell="A8" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="A39" sqref="A39:XFD39"/>
     </sheetView>
   </sheetViews>
@@ -11266,7 +9826,7 @@
         <v>2917788</v>
       </c>
       <c r="B40" s="29" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="C40" s="36">
         <v>4</v>
@@ -11285,7 +9845,7 @@
         <v>2918203</v>
       </c>
       <c r="B41" s="29" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="C41" s="36">
         <v>4</v>
@@ -11304,7 +9864,7 @@
         <v>2922764</v>
       </c>
       <c r="B42" s="29" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="C42" s="36">
         <v>4</v>
@@ -11323,7 +9883,7 @@
         <v>2922795</v>
       </c>
       <c r="B43" s="29" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="C43" s="36">
         <v>10</v>
@@ -11416,79 +9976,79 @@
     <mergeCell ref="E7:F7"/>
   </mergeCells>
   <conditionalFormatting sqref="D44">
-    <cfRule type="cellIs" dxfId="245" priority="34" operator="greaterThan">
-      <formula>0</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="244" priority="35" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="146" priority="34" operator="greaterThan">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="145" priority="35" operator="greaterThan">
       <formula>10</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="243" priority="36" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="144" priority="36" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E12:E43">
-    <cfRule type="cellIs" dxfId="236" priority="22" operator="greaterThan">
-      <formula>0</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="235" priority="23" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="143" priority="22" operator="greaterThan">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="142" priority="23" operator="greaterThan">
       <formula>10</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="234" priority="24" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="141" priority="24" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D50">
-    <cfRule type="cellIs" dxfId="233" priority="4" operator="greaterThan">
-      <formula>0</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="232" priority="5" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="140" priority="4" operator="greaterThan">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="139" priority="5" operator="greaterThan">
       <formula>10</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="231" priority="6" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="138" priority="6" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D47:D48 D50">
-    <cfRule type="cellIs" dxfId="230" priority="13" operator="greaterThan">
-      <formula>0</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="229" priority="14" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="137" priority="13" operator="greaterThan">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="136" priority="14" operator="greaterThan">
       <formula>10</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="228" priority="15" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="135" priority="15" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D49">
-    <cfRule type="cellIs" dxfId="227" priority="10" operator="greaterThan">
-      <formula>0</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="226" priority="11" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="134" priority="10" operator="greaterThan">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="133" priority="11" operator="greaterThan">
       <formula>10</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="225" priority="12" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="132" priority="12" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D49">
-    <cfRule type="cellIs" dxfId="224" priority="7" operator="greaterThan">
-      <formula>0</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="223" priority="8" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="131" priority="7" operator="greaterThan">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="130" priority="8" operator="greaterThan">
       <formula>10</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="222" priority="9" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="129" priority="9" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D12:D43">
-    <cfRule type="cellIs" dxfId="38" priority="1" operator="greaterThan">
-      <formula>0</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="37" priority="2" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="128" priority="1" operator="greaterThan">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="127" priority="2" operator="greaterThan">
       <formula>10</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="36" priority="3" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="126" priority="3" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
@@ -11501,7 +10061,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0E00-000000000000}">
   <dimension ref="A1:F50"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A8" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView topLeftCell="A8" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="A39" sqref="A39:XFD39"/>
     </sheetView>
   </sheetViews>
@@ -12139,7 +10699,7 @@
         <v>2917788</v>
       </c>
       <c r="B40" s="29" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="C40" s="36">
         <v>4</v>
@@ -12158,7 +10718,7 @@
         <v>2918203</v>
       </c>
       <c r="B41" s="29" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="C41" s="36">
         <v>4</v>
@@ -12177,7 +10737,7 @@
         <v>2922764</v>
       </c>
       <c r="B42" s="29" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="C42" s="36">
         <v>4</v>
@@ -12196,7 +10756,7 @@
         <v>2922795</v>
       </c>
       <c r="B43" s="29" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="C43" s="36">
         <v>10</v>
@@ -12289,79 +10849,79 @@
     <mergeCell ref="E7:F7"/>
   </mergeCells>
   <conditionalFormatting sqref="D44">
-    <cfRule type="cellIs" dxfId="218" priority="34" operator="greaterThan">
-      <formula>0</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="217" priority="35" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="125" priority="34" operator="greaterThan">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="124" priority="35" operator="greaterThan">
       <formula>10</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="216" priority="36" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="123" priority="36" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E12:E43">
-    <cfRule type="cellIs" dxfId="209" priority="22" operator="greaterThan">
-      <formula>0</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="208" priority="23" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="122" priority="22" operator="greaterThan">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="121" priority="23" operator="greaterThan">
       <formula>10</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="207" priority="24" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="120" priority="24" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D50">
-    <cfRule type="cellIs" dxfId="206" priority="4" operator="greaterThan">
-      <formula>0</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="205" priority="5" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="119" priority="4" operator="greaterThan">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="118" priority="5" operator="greaterThan">
       <formula>10</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="204" priority="6" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="117" priority="6" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D47:D48 D50">
-    <cfRule type="cellIs" dxfId="203" priority="13" operator="greaterThan">
-      <formula>0</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="202" priority="14" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="116" priority="13" operator="greaterThan">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="115" priority="14" operator="greaterThan">
       <formula>10</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="201" priority="15" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="114" priority="15" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D49">
-    <cfRule type="cellIs" dxfId="200" priority="10" operator="greaterThan">
-      <formula>0</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="199" priority="11" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="113" priority="10" operator="greaterThan">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="112" priority="11" operator="greaterThan">
       <formula>10</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="198" priority="12" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="111" priority="12" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D49">
-    <cfRule type="cellIs" dxfId="197" priority="7" operator="greaterThan">
-      <formula>0</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="196" priority="8" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="110" priority="7" operator="greaterThan">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="109" priority="8" operator="greaterThan">
       <formula>10</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="195" priority="9" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="108" priority="9" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D12:D43">
-    <cfRule type="cellIs" dxfId="41" priority="1" operator="greaterThan">
-      <formula>0</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="40" priority="2" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="107" priority="1" operator="greaterThan">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="106" priority="2" operator="greaterThan">
       <formula>10</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="39" priority="3" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="105" priority="3" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
@@ -12374,7 +10934,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0F00-000000000000}">
   <dimension ref="A1:F50"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A8" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView topLeftCell="A8" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="A39" sqref="A39:XFD39"/>
     </sheetView>
   </sheetViews>
@@ -13012,7 +11572,7 @@
         <v>2917788</v>
       </c>
       <c r="B40" s="29" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="C40" s="36">
         <v>4</v>
@@ -13031,7 +11591,7 @@
         <v>2918203</v>
       </c>
       <c r="B41" s="29" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="C41" s="36">
         <v>4</v>
@@ -13050,7 +11610,7 @@
         <v>2922764</v>
       </c>
       <c r="B42" s="29" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="C42" s="36">
         <v>4</v>
@@ -13069,7 +11629,7 @@
         <v>2922795</v>
       </c>
       <c r="B43" s="29" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="C43" s="36">
         <v>10</v>
@@ -13162,79 +11722,79 @@
     <mergeCell ref="E7:F7"/>
   </mergeCells>
   <conditionalFormatting sqref="D44">
-    <cfRule type="cellIs" dxfId="191" priority="34" operator="greaterThan">
-      <formula>0</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="190" priority="35" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="104" priority="34" operator="greaterThan">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="103" priority="35" operator="greaterThan">
       <formula>10</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="189" priority="36" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="102" priority="36" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E12:E43">
-    <cfRule type="cellIs" dxfId="182" priority="22" operator="greaterThan">
-      <formula>0</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="181" priority="23" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="101" priority="22" operator="greaterThan">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="100" priority="23" operator="greaterThan">
       <formula>10</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="180" priority="24" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="99" priority="24" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D50">
-    <cfRule type="cellIs" dxfId="179" priority="4" operator="greaterThan">
-      <formula>0</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="178" priority="5" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="98" priority="4" operator="greaterThan">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="97" priority="5" operator="greaterThan">
       <formula>10</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="177" priority="6" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="96" priority="6" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D47:D48 D50">
-    <cfRule type="cellIs" dxfId="176" priority="13" operator="greaterThan">
-      <formula>0</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="175" priority="14" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="95" priority="13" operator="greaterThan">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="94" priority="14" operator="greaterThan">
       <formula>10</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="174" priority="15" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="93" priority="15" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D49">
-    <cfRule type="cellIs" dxfId="173" priority="10" operator="greaterThan">
-      <formula>0</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="172" priority="11" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="92" priority="10" operator="greaterThan">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="91" priority="11" operator="greaterThan">
       <formula>10</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="171" priority="12" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="90" priority="12" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D49">
-    <cfRule type="cellIs" dxfId="170" priority="7" operator="greaterThan">
-      <formula>0</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="169" priority="8" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="89" priority="7" operator="greaterThan">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="88" priority="8" operator="greaterThan">
       <formula>10</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="168" priority="9" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="87" priority="9" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D12:D43">
-    <cfRule type="cellIs" dxfId="44" priority="1" operator="greaterThan">
-      <formula>0</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="43" priority="2" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="86" priority="1" operator="greaterThan">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="85" priority="2" operator="greaterThan">
       <formula>10</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="42" priority="3" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="84" priority="3" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
@@ -13247,7 +11807,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1000-000000000000}">
   <dimension ref="A1:F50"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A8" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView topLeftCell="A8" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="A39" sqref="A39:XFD39"/>
     </sheetView>
   </sheetViews>
@@ -13885,7 +12445,7 @@
         <v>2917788</v>
       </c>
       <c r="B40" s="29" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="C40" s="36">
         <v>4</v>
@@ -13904,7 +12464,7 @@
         <v>2918203</v>
       </c>
       <c r="B41" s="29" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="C41" s="36">
         <v>4</v>
@@ -13923,7 +12483,7 @@
         <v>2922764</v>
       </c>
       <c r="B42" s="29" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="C42" s="36">
         <v>4</v>
@@ -13942,7 +12502,7 @@
         <v>2922795</v>
       </c>
       <c r="B43" s="29" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="C43" s="36">
         <v>10</v>
@@ -14035,79 +12595,79 @@
     <mergeCell ref="E7:F7"/>
   </mergeCells>
   <conditionalFormatting sqref="D44">
-    <cfRule type="cellIs" dxfId="164" priority="34" operator="greaterThan">
-      <formula>0</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="163" priority="35" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="83" priority="34" operator="greaterThan">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="82" priority="35" operator="greaterThan">
       <formula>10</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="162" priority="36" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="81" priority="36" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E12:E43">
-    <cfRule type="cellIs" dxfId="155" priority="22" operator="greaterThan">
-      <formula>0</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="154" priority="23" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="80" priority="22" operator="greaterThan">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="79" priority="23" operator="greaterThan">
       <formula>10</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="153" priority="24" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="78" priority="24" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D50">
-    <cfRule type="cellIs" dxfId="152" priority="4" operator="greaterThan">
-      <formula>0</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="151" priority="5" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="77" priority="4" operator="greaterThan">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="76" priority="5" operator="greaterThan">
       <formula>10</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="150" priority="6" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="75" priority="6" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D47:D48 D50">
-    <cfRule type="cellIs" dxfId="149" priority="13" operator="greaterThan">
-      <formula>0</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="148" priority="14" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="74" priority="13" operator="greaterThan">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="73" priority="14" operator="greaterThan">
       <formula>10</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="147" priority="15" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="72" priority="15" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D49">
-    <cfRule type="cellIs" dxfId="146" priority="10" operator="greaterThan">
-      <formula>0</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="145" priority="11" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="71" priority="10" operator="greaterThan">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="70" priority="11" operator="greaterThan">
       <formula>10</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="144" priority="12" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="69" priority="12" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D49">
-    <cfRule type="cellIs" dxfId="143" priority="7" operator="greaterThan">
-      <formula>0</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="142" priority="8" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="68" priority="7" operator="greaterThan">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="67" priority="8" operator="greaterThan">
       <formula>10</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="141" priority="9" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="66" priority="9" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D12:D43">
-    <cfRule type="cellIs" dxfId="47" priority="1" operator="greaterThan">
-      <formula>0</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="46" priority="2" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="65" priority="1" operator="greaterThan">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="64" priority="2" operator="greaterThan">
       <formula>10</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="45" priority="3" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="63" priority="3" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
@@ -14120,7 +12680,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1100-000000000000}">
   <dimension ref="A1:F50"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A5" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView topLeftCell="A5" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="A39" sqref="A39:XFD39"/>
     </sheetView>
   </sheetViews>
@@ -14758,7 +13318,7 @@
         <v>2917788</v>
       </c>
       <c r="B40" s="29" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="C40" s="36">
         <v>4</v>
@@ -14777,7 +13337,7 @@
         <v>2918203</v>
       </c>
       <c r="B41" s="29" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="C41" s="36">
         <v>4</v>
@@ -14796,7 +13356,7 @@
         <v>2922764</v>
       </c>
       <c r="B42" s="29" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="C42" s="36">
         <v>4</v>
@@ -14815,7 +13375,7 @@
         <v>2922795</v>
       </c>
       <c r="B43" s="29" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="C43" s="36">
         <v>10</v>
@@ -14908,79 +13468,79 @@
     <mergeCell ref="E7:F7"/>
   </mergeCells>
   <conditionalFormatting sqref="D44">
-    <cfRule type="cellIs" dxfId="137" priority="34" operator="greaterThan">
-      <formula>0</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="136" priority="35" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="62" priority="34" operator="greaterThan">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="61" priority="35" operator="greaterThan">
       <formula>10</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="135" priority="36" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="60" priority="36" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E12:E43">
-    <cfRule type="cellIs" dxfId="128" priority="22" operator="greaterThan">
-      <formula>0</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="127" priority="23" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="59" priority="22" operator="greaterThan">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="58" priority="23" operator="greaterThan">
       <formula>10</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="126" priority="24" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="57" priority="24" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D50">
-    <cfRule type="cellIs" dxfId="125" priority="4" operator="greaterThan">
-      <formula>0</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="124" priority="5" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="56" priority="4" operator="greaterThan">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="55" priority="5" operator="greaterThan">
       <formula>10</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="123" priority="6" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="54" priority="6" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D47:D48 D50">
-    <cfRule type="cellIs" dxfId="122" priority="13" operator="greaterThan">
-      <formula>0</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="121" priority="14" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="53" priority="13" operator="greaterThan">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="52" priority="14" operator="greaterThan">
       <formula>10</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="120" priority="15" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="51" priority="15" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D49">
-    <cfRule type="cellIs" dxfId="119" priority="10" operator="greaterThan">
-      <formula>0</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="118" priority="11" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="50" priority="10" operator="greaterThan">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="49" priority="11" operator="greaterThan">
       <formula>10</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="117" priority="12" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="48" priority="12" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D49">
-    <cfRule type="cellIs" dxfId="116" priority="7" operator="greaterThan">
-      <formula>0</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="115" priority="8" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="47" priority="7" operator="greaterThan">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="46" priority="8" operator="greaterThan">
       <formula>10</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="114" priority="9" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="45" priority="9" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D12:D43">
-    <cfRule type="cellIs" dxfId="50" priority="1" operator="greaterThan">
-      <formula>0</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="49" priority="2" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="44" priority="1" operator="greaterThan">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="43" priority="2" operator="greaterThan">
       <formula>10</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="48" priority="3" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="42" priority="3" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
@@ -14993,7 +13553,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1200-000000000000}">
   <dimension ref="A1:F50"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A8" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView topLeftCell="A8" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="A39" sqref="A39:XFD39"/>
     </sheetView>
   </sheetViews>
@@ -15631,7 +14191,7 @@
         <v>2917788</v>
       </c>
       <c r="B40" s="29" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="C40" s="36">
         <v>4</v>
@@ -15650,7 +14210,7 @@
         <v>2918203</v>
       </c>
       <c r="B41" s="29" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="C41" s="36">
         <v>4</v>
@@ -15669,7 +14229,7 @@
         <v>2922764</v>
       </c>
       <c r="B42" s="29" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="C42" s="36">
         <v>4</v>
@@ -15688,7 +14248,7 @@
         <v>2922795</v>
       </c>
       <c r="B43" s="29" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="C43" s="36">
         <v>10</v>
@@ -15781,79 +14341,79 @@
     <mergeCell ref="E7:F7"/>
   </mergeCells>
   <conditionalFormatting sqref="D44">
-    <cfRule type="cellIs" dxfId="110" priority="34" operator="greaterThan">
-      <formula>0</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="109" priority="35" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="41" priority="34" operator="greaterThan">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="40" priority="35" operator="greaterThan">
       <formula>10</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="108" priority="36" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="39" priority="36" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E12:E43">
-    <cfRule type="cellIs" dxfId="101" priority="22" operator="greaterThan">
-      <formula>0</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="100" priority="23" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="38" priority="22" operator="greaterThan">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="37" priority="23" operator="greaterThan">
       <formula>10</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="99" priority="24" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="36" priority="24" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D50">
-    <cfRule type="cellIs" dxfId="98" priority="4" operator="greaterThan">
-      <formula>0</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="97" priority="5" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="35" priority="4" operator="greaterThan">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="34" priority="5" operator="greaterThan">
       <formula>10</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="96" priority="6" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="33" priority="6" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D47:D48 D50">
-    <cfRule type="cellIs" dxfId="95" priority="13" operator="greaterThan">
-      <formula>0</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="94" priority="14" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="32" priority="13" operator="greaterThan">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="31" priority="14" operator="greaterThan">
       <formula>10</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="93" priority="15" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="30" priority="15" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D49">
-    <cfRule type="cellIs" dxfId="92" priority="10" operator="greaterThan">
-      <formula>0</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="91" priority="11" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="29" priority="10" operator="greaterThan">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="28" priority="11" operator="greaterThan">
       <formula>10</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="90" priority="12" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="27" priority="12" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D49">
-    <cfRule type="cellIs" dxfId="89" priority="7" operator="greaterThan">
-      <formula>0</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="88" priority="8" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="26" priority="7" operator="greaterThan">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="25" priority="8" operator="greaterThan">
       <formula>10</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="87" priority="9" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="24" priority="9" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D12:D43">
-    <cfRule type="cellIs" dxfId="53" priority="1" operator="greaterThan">
-      <formula>0</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="52" priority="2" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="23" priority="1" operator="greaterThan">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="22" priority="2" operator="greaterThan">
       <formula>10</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="51" priority="3" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="21" priority="3" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
@@ -15869,7 +14429,7 @@
   </sheetPr>
   <dimension ref="A1:F50"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A35" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView topLeftCell="A47" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="A39" sqref="A39:XFD39"/>
     </sheetView>
   </sheetViews>
@@ -16507,7 +15067,7 @@
         <v>2917788</v>
       </c>
       <c r="B40" s="29" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="C40" s="36">
         <v>4</v>
@@ -16526,7 +15086,7 @@
         <v>2918203</v>
       </c>
       <c r="B41" s="29" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="C41" s="36">
         <v>4</v>
@@ -16545,7 +15105,7 @@
         <v>2922764</v>
       </c>
       <c r="B42" s="29" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="C42" s="36">
         <v>4</v>
@@ -16564,7 +15124,7 @@
         <v>2922795</v>
       </c>
       <c r="B43" s="29" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="C43" s="36">
         <v>10</v>
@@ -16657,79 +15217,79 @@
     <mergeCell ref="E7:F7"/>
   </mergeCells>
   <conditionalFormatting sqref="D44">
-    <cfRule type="cellIs" dxfId="569" priority="34" operator="greaterThan">
-      <formula>0</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="568" priority="35" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="398" priority="34" operator="greaterThan">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="397" priority="35" operator="greaterThan">
       <formula>10</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="567" priority="36" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="396" priority="36" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E12:E43">
-    <cfRule type="cellIs" dxfId="560" priority="22" operator="greaterThan">
-      <formula>0</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="559" priority="23" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="395" priority="22" operator="greaterThan">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="394" priority="23" operator="greaterThan">
       <formula>10</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="558" priority="24" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="393" priority="24" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D50">
-    <cfRule type="cellIs" dxfId="557" priority="4" operator="greaterThan">
-      <formula>0</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="556" priority="5" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="392" priority="4" operator="greaterThan">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="391" priority="5" operator="greaterThan">
       <formula>10</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="555" priority="6" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="390" priority="6" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D47:D48 D50">
-    <cfRule type="cellIs" dxfId="554" priority="13" operator="greaterThan">
-      <formula>0</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="553" priority="14" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="389" priority="13" operator="greaterThan">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="388" priority="14" operator="greaterThan">
       <formula>10</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="552" priority="15" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="387" priority="15" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D49">
-    <cfRule type="cellIs" dxfId="551" priority="10" operator="greaterThan">
-      <formula>0</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="550" priority="11" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="386" priority="10" operator="greaterThan">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="385" priority="11" operator="greaterThan">
       <formula>10</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="549" priority="12" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="384" priority="12" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D49">
-    <cfRule type="cellIs" dxfId="548" priority="7" operator="greaterThan">
-      <formula>0</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="547" priority="8" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="383" priority="7" operator="greaterThan">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="382" priority="8" operator="greaterThan">
       <formula>10</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="546" priority="9" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="381" priority="9" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D12:D43">
-    <cfRule type="cellIs" dxfId="2" priority="1" operator="greaterThan">
-      <formula>0</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="1" priority="2" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="380" priority="1" operator="greaterThan">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="379" priority="2" operator="greaterThan">
       <formula>10</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="0" priority="3" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="378" priority="3" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
@@ -16742,7 +15302,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1300-000000000000}">
   <dimension ref="A1:F50"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A8" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView topLeftCell="A8" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="A39" sqref="A39:XFD39"/>
     </sheetView>
   </sheetViews>
@@ -17377,7 +15937,7 @@
         <v>2917788</v>
       </c>
       <c r="B40" s="29" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="C40" s="36">
         <v>4</v>
@@ -17396,7 +15956,7 @@
         <v>2918203</v>
       </c>
       <c r="B41" s="29" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="C41" s="36">
         <v>4</v>
@@ -17415,7 +15975,7 @@
         <v>2922764</v>
       </c>
       <c r="B42" s="29" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="C42" s="36">
         <v>4</v>
@@ -17434,7 +15994,7 @@
         <v>2922795</v>
       </c>
       <c r="B43" s="29" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="C43" s="36">
         <v>10</v>
@@ -17527,79 +16087,79 @@
     <mergeCell ref="E7:F7"/>
   </mergeCells>
   <conditionalFormatting sqref="D44">
-    <cfRule type="cellIs" dxfId="83" priority="34" operator="greaterThan">
-      <formula>0</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="82" priority="35" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="20" priority="34" operator="greaterThan">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="19" priority="35" operator="greaterThan">
       <formula>10</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="81" priority="36" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="18" priority="36" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E12:E43">
-    <cfRule type="cellIs" dxfId="74" priority="22" operator="greaterThan">
-      <formula>0</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="73" priority="23" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="17" priority="22" operator="greaterThan">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="16" priority="23" operator="greaterThan">
       <formula>10</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="72" priority="24" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="15" priority="24" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D50">
-    <cfRule type="cellIs" dxfId="71" priority="4" operator="greaterThan">
-      <formula>0</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="70" priority="5" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="14" priority="4" operator="greaterThan">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="13" priority="5" operator="greaterThan">
       <formula>10</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="69" priority="6" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="12" priority="6" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D47:D48 D50">
-    <cfRule type="cellIs" dxfId="68" priority="13" operator="greaterThan">
-      <formula>0</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="67" priority="14" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="11" priority="13" operator="greaterThan">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="10" priority="14" operator="greaterThan">
       <formula>10</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="66" priority="15" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="9" priority="15" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D49">
-    <cfRule type="cellIs" dxfId="65" priority="10" operator="greaterThan">
-      <formula>0</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="64" priority="11" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="8" priority="10" operator="greaterThan">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="7" priority="11" operator="greaterThan">
       <formula>10</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="63" priority="12" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="6" priority="12" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D49">
-    <cfRule type="cellIs" dxfId="62" priority="7" operator="greaterThan">
-      <formula>0</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="61" priority="8" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="5" priority="7" operator="greaterThan">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="4" priority="8" operator="greaterThan">
       <formula>10</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="60" priority="9" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="3" priority="9" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D12:D43">
-    <cfRule type="cellIs" dxfId="56" priority="1" operator="greaterThan">
-      <formula>0</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="55" priority="2" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="2" priority="1" operator="greaterThan">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="1" priority="2" operator="greaterThan">
       <formula>10</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="54" priority="3" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="0" priority="3" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
@@ -17615,7 +16175,7 @@
   </sheetPr>
   <dimension ref="A1:F50"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView topLeftCell="A7" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="A39" sqref="A39:XFD39"/>
     </sheetView>
   </sheetViews>
@@ -18253,7 +16813,7 @@
         <v>2917788</v>
       </c>
       <c r="B40" s="29" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="C40" s="36">
         <v>4</v>
@@ -18272,7 +16832,7 @@
         <v>2918203</v>
       </c>
       <c r="B41" s="29" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="C41" s="36">
         <v>4</v>
@@ -18291,7 +16851,7 @@
         <v>2922764</v>
       </c>
       <c r="B42" s="29" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="C42" s="36">
         <v>4</v>
@@ -18310,7 +16870,7 @@
         <v>2922795</v>
       </c>
       <c r="B43" s="29" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="C43" s="36">
         <v>10</v>
@@ -18403,79 +16963,79 @@
     <mergeCell ref="E7:F7"/>
   </mergeCells>
   <conditionalFormatting sqref="D44">
-    <cfRule type="cellIs" dxfId="542" priority="34" operator="greaterThan">
-      <formula>0</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="541" priority="35" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="377" priority="34" operator="greaterThan">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="376" priority="35" operator="greaterThan">
       <formula>10</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="540" priority="36" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="375" priority="36" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E12:E43">
-    <cfRule type="cellIs" dxfId="533" priority="22" operator="greaterThan">
-      <formula>0</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="532" priority="23" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="374" priority="22" operator="greaterThan">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="373" priority="23" operator="greaterThan">
       <formula>10</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="531" priority="24" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="372" priority="24" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D50">
-    <cfRule type="cellIs" dxfId="530" priority="4" operator="greaterThan">
-      <formula>0</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="529" priority="5" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="371" priority="4" operator="greaterThan">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="370" priority="5" operator="greaterThan">
       <formula>10</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="528" priority="6" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="369" priority="6" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D47:D48 D50">
-    <cfRule type="cellIs" dxfId="527" priority="13" operator="greaterThan">
-      <formula>0</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="526" priority="14" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="368" priority="13" operator="greaterThan">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="367" priority="14" operator="greaterThan">
       <formula>10</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="525" priority="15" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="366" priority="15" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D49">
-    <cfRule type="cellIs" dxfId="524" priority="10" operator="greaterThan">
-      <formula>0</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="523" priority="11" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="365" priority="10" operator="greaterThan">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="364" priority="11" operator="greaterThan">
       <formula>10</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="522" priority="12" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="363" priority="12" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D49">
-    <cfRule type="cellIs" dxfId="521" priority="7" operator="greaterThan">
-      <formula>0</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="520" priority="8" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="362" priority="7" operator="greaterThan">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="361" priority="8" operator="greaterThan">
       <formula>10</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="519" priority="9" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="360" priority="9" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D12:D43">
-    <cfRule type="cellIs" dxfId="5" priority="1" operator="greaterThan">
-      <formula>0</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="4" priority="2" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="359" priority="1" operator="greaterThan">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="358" priority="2" operator="greaterThan">
       <formula>10</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="3" priority="3" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="357" priority="3" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
@@ -18491,7 +17051,7 @@
   </sheetPr>
   <dimension ref="A1:F50"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A5" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView topLeftCell="A5" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="A39" sqref="A39:XFD39"/>
     </sheetView>
   </sheetViews>
@@ -19129,7 +17689,7 @@
         <v>2917788</v>
       </c>
       <c r="B40" s="29" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="C40" s="36">
         <v>4</v>
@@ -19148,7 +17708,7 @@
         <v>2918203</v>
       </c>
       <c r="B41" s="29" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="C41" s="36">
         <v>4</v>
@@ -19167,7 +17727,7 @@
         <v>2922764</v>
       </c>
       <c r="B42" s="29" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="C42" s="36">
         <v>4</v>
@@ -19186,7 +17746,7 @@
         <v>2922795</v>
       </c>
       <c r="B43" s="29" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="C43" s="36">
         <v>10</v>
@@ -19279,79 +17839,79 @@
     <mergeCell ref="E7:F7"/>
   </mergeCells>
   <conditionalFormatting sqref="D44">
-    <cfRule type="cellIs" dxfId="515" priority="34" operator="greaterThan">
-      <formula>0</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="514" priority="35" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="356" priority="34" operator="greaterThan">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="355" priority="35" operator="greaterThan">
       <formula>10</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="513" priority="36" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="354" priority="36" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E12:E43">
-    <cfRule type="cellIs" dxfId="506" priority="22" operator="greaterThan">
-      <formula>0</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="505" priority="23" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="353" priority="22" operator="greaterThan">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="352" priority="23" operator="greaterThan">
       <formula>10</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="504" priority="24" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="351" priority="24" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D50">
-    <cfRule type="cellIs" dxfId="503" priority="4" operator="greaterThan">
-      <formula>0</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="502" priority="5" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="350" priority="4" operator="greaterThan">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="349" priority="5" operator="greaterThan">
       <formula>10</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="501" priority="6" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="348" priority="6" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D47:D48 D50">
-    <cfRule type="cellIs" dxfId="500" priority="13" operator="greaterThan">
-      <formula>0</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="499" priority="14" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="347" priority="13" operator="greaterThan">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="346" priority="14" operator="greaterThan">
       <formula>10</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="498" priority="15" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="345" priority="15" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D49">
-    <cfRule type="cellIs" dxfId="497" priority="10" operator="greaterThan">
-      <formula>0</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="496" priority="11" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="344" priority="10" operator="greaterThan">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="343" priority="11" operator="greaterThan">
       <formula>10</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="495" priority="12" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="342" priority="12" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D49">
-    <cfRule type="cellIs" dxfId="494" priority="7" operator="greaterThan">
-      <formula>0</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="493" priority="8" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="341" priority="7" operator="greaterThan">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="340" priority="8" operator="greaterThan">
       <formula>10</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="492" priority="9" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="339" priority="9" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D12:D43">
-    <cfRule type="cellIs" dxfId="8" priority="1" operator="greaterThan">
-      <formula>0</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="7" priority="2" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="338" priority="1" operator="greaterThan">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="337" priority="2" operator="greaterThan">
       <formula>10</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="6" priority="3" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="336" priority="3" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
@@ -19367,7 +17927,7 @@
   </sheetPr>
   <dimension ref="A1:F50"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A5" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView topLeftCell="A5" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="A39" sqref="A39:XFD39"/>
     </sheetView>
   </sheetViews>
@@ -20005,7 +18565,7 @@
         <v>2917788</v>
       </c>
       <c r="B40" s="29" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="C40" s="36">
         <v>4</v>
@@ -20024,7 +18584,7 @@
         <v>2918203</v>
       </c>
       <c r="B41" s="29" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="C41" s="36">
         <v>4</v>
@@ -20043,7 +18603,7 @@
         <v>2922764</v>
       </c>
       <c r="B42" s="29" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="C42" s="36">
         <v>4</v>
@@ -20062,7 +18622,7 @@
         <v>2922795</v>
       </c>
       <c r="B43" s="29" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="C43" s="36">
         <v>10</v>
@@ -20155,79 +18715,79 @@
     <mergeCell ref="E7:F7"/>
   </mergeCells>
   <conditionalFormatting sqref="D44">
-    <cfRule type="cellIs" dxfId="488" priority="34" operator="greaterThan">
-      <formula>0</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="487" priority="35" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="335" priority="34" operator="greaterThan">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="334" priority="35" operator="greaterThan">
       <formula>10</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="486" priority="36" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="333" priority="36" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E12:E43">
-    <cfRule type="cellIs" dxfId="479" priority="22" operator="greaterThan">
-      <formula>0</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="478" priority="23" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="332" priority="22" operator="greaterThan">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="331" priority="23" operator="greaterThan">
       <formula>10</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="477" priority="24" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="330" priority="24" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D50">
-    <cfRule type="cellIs" dxfId="476" priority="4" operator="greaterThan">
-      <formula>0</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="475" priority="5" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="329" priority="4" operator="greaterThan">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="328" priority="5" operator="greaterThan">
       <formula>10</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="474" priority="6" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="327" priority="6" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D47:D48 D50">
-    <cfRule type="cellIs" dxfId="473" priority="13" operator="greaterThan">
-      <formula>0</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="472" priority="14" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="326" priority="13" operator="greaterThan">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="325" priority="14" operator="greaterThan">
       <formula>10</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="471" priority="15" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="324" priority="15" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D49">
-    <cfRule type="cellIs" dxfId="470" priority="10" operator="greaterThan">
-      <formula>0</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="469" priority="11" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="323" priority="10" operator="greaterThan">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="322" priority="11" operator="greaterThan">
       <formula>10</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="468" priority="12" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="321" priority="12" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D49">
-    <cfRule type="cellIs" dxfId="467" priority="7" operator="greaterThan">
-      <formula>0</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="466" priority="8" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="320" priority="7" operator="greaterThan">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="319" priority="8" operator="greaterThan">
       <formula>10</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="465" priority="9" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="318" priority="9" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D12:D43">
-    <cfRule type="cellIs" dxfId="11" priority="1" operator="greaterThan">
-      <formula>0</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="10" priority="2" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="317" priority="1" operator="greaterThan">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="316" priority="2" operator="greaterThan">
       <formula>10</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="9" priority="3" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="315" priority="3" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
@@ -20243,7 +18803,7 @@
   </sheetPr>
   <dimension ref="A1:F50"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView topLeftCell="A4" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="A39" sqref="A39:XFD39"/>
     </sheetView>
   </sheetViews>
@@ -20881,7 +19441,7 @@
         <v>2917788</v>
       </c>
       <c r="B40" s="29" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="C40" s="36">
         <v>4</v>
@@ -20900,7 +19460,7 @@
         <v>2918203</v>
       </c>
       <c r="B41" s="29" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="C41" s="36">
         <v>4</v>
@@ -20919,7 +19479,7 @@
         <v>2922764</v>
       </c>
       <c r="B42" s="29" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="C42" s="36">
         <v>4</v>
@@ -20938,7 +19498,7 @@
         <v>2922795</v>
       </c>
       <c r="B43" s="29" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="C43" s="36">
         <v>10</v>
@@ -21031,79 +19591,79 @@
     <mergeCell ref="E7:F7"/>
   </mergeCells>
   <conditionalFormatting sqref="D44">
-    <cfRule type="cellIs" dxfId="461" priority="46" operator="greaterThan">
-      <formula>0</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="460" priority="47" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="314" priority="46" operator="greaterThan">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="313" priority="47" operator="greaterThan">
       <formula>10</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="459" priority="48" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="312" priority="48" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E12:E43">
-    <cfRule type="cellIs" dxfId="452" priority="34" operator="greaterThan">
-      <formula>0</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="451" priority="35" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="311" priority="34" operator="greaterThan">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="310" priority="35" operator="greaterThan">
       <formula>10</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="450" priority="36" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="309" priority="36" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D50">
-    <cfRule type="cellIs" dxfId="449" priority="4" operator="greaterThan">
-      <formula>0</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="448" priority="5" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="308" priority="4" operator="greaterThan">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="307" priority="5" operator="greaterThan">
       <formula>10</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="447" priority="6" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="306" priority="6" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D47:D48 D50">
-    <cfRule type="cellIs" dxfId="446" priority="13" operator="greaterThan">
-      <formula>0</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="445" priority="14" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="305" priority="13" operator="greaterThan">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="304" priority="14" operator="greaterThan">
       <formula>10</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="444" priority="15" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="303" priority="15" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D49">
-    <cfRule type="cellIs" dxfId="443" priority="10" operator="greaterThan">
-      <formula>0</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="442" priority="11" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="302" priority="10" operator="greaterThan">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="301" priority="11" operator="greaterThan">
       <formula>10</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="441" priority="12" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="300" priority="12" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D49">
-    <cfRule type="cellIs" dxfId="440" priority="7" operator="greaterThan">
-      <formula>0</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="439" priority="8" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="299" priority="7" operator="greaterThan">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="298" priority="8" operator="greaterThan">
       <formula>10</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="438" priority="9" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="297" priority="9" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D12:D43">
-    <cfRule type="cellIs" dxfId="14" priority="1" operator="greaterThan">
-      <formula>0</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="13" priority="2" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="296" priority="1" operator="greaterThan">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="295" priority="2" operator="greaterThan">
       <formula>10</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="12" priority="3" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="294" priority="3" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
@@ -21119,7 +19679,7 @@
   </sheetPr>
   <dimension ref="A1:F50"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A5" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView topLeftCell="A5" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="A39" sqref="A39:XFD39"/>
     </sheetView>
   </sheetViews>
@@ -21206,7 +19766,7 @@
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B10" s="45" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
     </row>
     <row r="11" spans="1:6" ht="24" x14ac:dyDescent="0.35">
@@ -21760,7 +20320,7 @@
         <v>2917788</v>
       </c>
       <c r="B40" s="29" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="C40" s="36">
         <v>4</v>
@@ -21779,7 +20339,7 @@
         <v>2918203</v>
       </c>
       <c r="B41" s="29" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="C41" s="36">
         <v>4</v>
@@ -21798,7 +20358,7 @@
         <v>2922764</v>
       </c>
       <c r="B42" s="29" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="C42" s="36">
         <v>4</v>
@@ -21817,7 +20377,7 @@
         <v>2922795</v>
       </c>
       <c r="B43" s="29" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="C43" s="36">
         <v>10</v>
@@ -21909,79 +20469,79 @@
     <mergeCell ref="A5:F5"/>
   </mergeCells>
   <conditionalFormatting sqref="D44">
-    <cfRule type="cellIs" dxfId="434" priority="34" operator="greaterThan">
-      <formula>0</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="433" priority="35" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="293" priority="34" operator="greaterThan">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="292" priority="35" operator="greaterThan">
       <formula>10</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="432" priority="36" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="291" priority="36" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E12:E43">
-    <cfRule type="cellIs" dxfId="425" priority="22" operator="greaterThan">
-      <formula>0</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="424" priority="23" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="290" priority="22" operator="greaterThan">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="289" priority="23" operator="greaterThan">
       <formula>10</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="423" priority="24" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="288" priority="24" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D50">
-    <cfRule type="cellIs" dxfId="422" priority="4" operator="greaterThan">
-      <formula>0</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="421" priority="5" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="287" priority="4" operator="greaterThan">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="286" priority="5" operator="greaterThan">
       <formula>10</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="420" priority="6" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="285" priority="6" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D47:D48 D50">
-    <cfRule type="cellIs" dxfId="419" priority="13" operator="greaterThan">
-      <formula>0</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="418" priority="14" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="284" priority="13" operator="greaterThan">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="283" priority="14" operator="greaterThan">
       <formula>10</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="417" priority="15" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="282" priority="15" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D49">
-    <cfRule type="cellIs" dxfId="416" priority="10" operator="greaterThan">
-      <formula>0</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="415" priority="11" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="281" priority="10" operator="greaterThan">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="280" priority="11" operator="greaterThan">
       <formula>10</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="414" priority="12" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="279" priority="12" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D49">
-    <cfRule type="cellIs" dxfId="413" priority="7" operator="greaterThan">
-      <formula>0</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="412" priority="8" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="278" priority="7" operator="greaterThan">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="277" priority="8" operator="greaterThan">
       <formula>10</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="411" priority="9" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="276" priority="9" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D12:D43">
-    <cfRule type="cellIs" dxfId="17" priority="1" operator="greaterThan">
-      <formula>0</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="16" priority="2" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="275" priority="1" operator="greaterThan">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="274" priority="2" operator="greaterThan">
       <formula>10</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="15" priority="3" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="273" priority="3" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
@@ -21997,7 +20557,7 @@
   </sheetPr>
   <dimension ref="A1:F50"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A8" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView topLeftCell="A8" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="A39" sqref="A39:XFD39"/>
     </sheetView>
   </sheetViews>
@@ -22635,7 +21195,7 @@
         <v>2917788</v>
       </c>
       <c r="B40" s="29" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="C40" s="36">
         <v>4</v>
@@ -22654,7 +21214,7 @@
         <v>2918203</v>
       </c>
       <c r="B41" s="29" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="C41" s="36">
         <v>4</v>
@@ -22673,7 +21233,7 @@
         <v>2922764</v>
       </c>
       <c r="B42" s="29" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="C42" s="36">
         <v>4</v>
@@ -22692,7 +21252,7 @@
         <v>2922795</v>
       </c>
       <c r="B43" s="29" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="C43" s="36">
         <v>10</v>
@@ -22785,79 +21345,79 @@
     <mergeCell ref="E7:F7"/>
   </mergeCells>
   <conditionalFormatting sqref="D44">
-    <cfRule type="cellIs" dxfId="407" priority="43" operator="greaterThan">
-      <formula>0</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="406" priority="44" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="272" priority="43" operator="greaterThan">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="271" priority="44" operator="greaterThan">
       <formula>10</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="405" priority="45" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="270" priority="45" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E12:E43">
-    <cfRule type="cellIs" dxfId="398" priority="31" operator="greaterThan">
-      <formula>0</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="397" priority="32" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="269" priority="31" operator="greaterThan">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="268" priority="32" operator="greaterThan">
       <formula>10</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="396" priority="33" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="267" priority="33" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D50">
-    <cfRule type="cellIs" dxfId="395" priority="4" operator="greaterThan">
-      <formula>0</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="394" priority="5" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="266" priority="4" operator="greaterThan">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="265" priority="5" operator="greaterThan">
       <formula>10</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="393" priority="6" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="264" priority="6" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D47:D48 D50">
-    <cfRule type="cellIs" dxfId="392" priority="13" operator="greaterThan">
-      <formula>0</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="391" priority="14" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="263" priority="13" operator="greaterThan">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="262" priority="14" operator="greaterThan">
       <formula>10</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="390" priority="15" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="261" priority="15" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D49">
-    <cfRule type="cellIs" dxfId="389" priority="10" operator="greaterThan">
-      <formula>0</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="388" priority="11" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="260" priority="10" operator="greaterThan">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="259" priority="11" operator="greaterThan">
       <formula>10</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="387" priority="12" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="258" priority="12" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D49">
-    <cfRule type="cellIs" dxfId="386" priority="7" operator="greaterThan">
-      <formula>0</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="385" priority="8" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="257" priority="7" operator="greaterThan">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="256" priority="8" operator="greaterThan">
       <formula>10</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="384" priority="9" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="255" priority="9" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D12:D43">
-    <cfRule type="cellIs" dxfId="20" priority="1" operator="greaterThan">
-      <formula>0</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="19" priority="2" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="254" priority="1" operator="greaterThan">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="253" priority="2" operator="greaterThan">
       <formula>10</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="18" priority="3" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="252" priority="3" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
@@ -22873,7 +21433,7 @@
   </sheetPr>
   <dimension ref="A1:F50"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A8" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView topLeftCell="A8" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="A39" sqref="A39:XFD39"/>
     </sheetView>
   </sheetViews>
@@ -23511,7 +22071,7 @@
         <v>2917788</v>
       </c>
       <c r="B40" s="29" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="C40" s="36">
         <v>4</v>
@@ -23530,7 +22090,7 @@
         <v>2918203</v>
       </c>
       <c r="B41" s="29" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="C41" s="36">
         <v>4</v>
@@ -23549,7 +22109,7 @@
         <v>2922764</v>
       </c>
       <c r="B42" s="29" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="C42" s="36">
         <v>4</v>
@@ -23568,7 +22128,7 @@
         <v>2922795</v>
       </c>
       <c r="B43" s="29" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="C43" s="36">
         <v>10</v>
@@ -23661,79 +22221,79 @@
     <mergeCell ref="A5:F5"/>
   </mergeCells>
   <conditionalFormatting sqref="D44">
-    <cfRule type="cellIs" dxfId="380" priority="34" operator="greaterThan">
-      <formula>0</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="379" priority="35" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="251" priority="34" operator="greaterThan">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="250" priority="35" operator="greaterThan">
       <formula>10</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="378" priority="36" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="249" priority="36" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E12:E43">
-    <cfRule type="cellIs" dxfId="371" priority="22" operator="greaterThan">
-      <formula>0</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="370" priority="23" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="248" priority="22" operator="greaterThan">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="247" priority="23" operator="greaterThan">
       <formula>10</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="369" priority="24" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="246" priority="24" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D50">
-    <cfRule type="cellIs" dxfId="368" priority="4" operator="greaterThan">
-      <formula>0</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="367" priority="5" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="245" priority="4" operator="greaterThan">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="244" priority="5" operator="greaterThan">
       <formula>10</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="366" priority="6" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="243" priority="6" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D47:D48 D50">
-    <cfRule type="cellIs" dxfId="365" priority="13" operator="greaterThan">
-      <formula>0</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="364" priority="14" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="242" priority="13" operator="greaterThan">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="241" priority="14" operator="greaterThan">
       <formula>10</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="363" priority="15" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="240" priority="15" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D49">
-    <cfRule type="cellIs" dxfId="362" priority="10" operator="greaterThan">
-      <formula>0</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="361" priority="11" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="239" priority="10" operator="greaterThan">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="238" priority="11" operator="greaterThan">
       <formula>10</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="360" priority="12" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="237" priority="12" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D49">
-    <cfRule type="cellIs" dxfId="359" priority="7" operator="greaterThan">
-      <formula>0</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="358" priority="8" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="236" priority="7" operator="greaterThan">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="235" priority="8" operator="greaterThan">
       <formula>10</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="357" priority="9" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="234" priority="9" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D12:D43">
-    <cfRule type="cellIs" dxfId="23" priority="1" operator="greaterThan">
-      <formula>0</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="22" priority="2" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="233" priority="1" operator="greaterThan">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="232" priority="2" operator="greaterThan">
       <formula>10</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="21" priority="3" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="231" priority="3" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>

--- a/SWS.xlsx
+++ b/SWS.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\hp\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B1942B40-0815-4AA6-8B58-74A7FD8C6051}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{21ED30A1-AC54-442C-BC5A-6DC9891A396E}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -4681,8 +4681,8 @@
   </sheetPr>
   <dimension ref="A1:G57"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A50" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A57" sqref="A57:B57"/>
+    <sheetView tabSelected="1" topLeftCell="A6" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="D14" sqref="D14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4781,7 +4781,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="12" spans="1:6" ht="26.25" hidden="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:6" ht="26.25" x14ac:dyDescent="0.25">
       <c r="A12" s="5">
         <v>2644573</v>
       </c>
@@ -4791,7 +4791,9 @@
       <c r="C12" s="13">
         <v>10</v>
       </c>
-      <c r="D12" s="15"/>
+      <c r="D12" s="15">
+        <v>174</v>
+      </c>
       <c r="E12" s="15">
         <f>+'6'!E12+'12'!E12+'8'!E12+'7'!E12+'2'!E12+'5'!E12+'4'!E12+'9'!E12+'1'!E12+'10'!E12+'3'!E12+'11'!E12+'13'!E12+'14'!E12+'15'!E12+'16'!E12+'17'!E12+'18'!E12+'19'!E12</f>
         <v>0</v>
@@ -4801,7 +4803,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:6" ht="26.25" hidden="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:6" ht="26.25" x14ac:dyDescent="0.25">
       <c r="A13" s="5">
         <v>2646698</v>
       </c>
@@ -4811,7 +4813,9 @@
       <c r="C13" s="13">
         <v>10</v>
       </c>
-      <c r="D13" s="15"/>
+      <c r="D13" s="15">
+        <v>174</v>
+      </c>
       <c r="E13" s="15">
         <f>+'6'!E13+'12'!E13+'8'!E13+'7'!E13+'2'!E13+'5'!E13+'4'!E13+'9'!E13+'1'!E13+'10'!E13+'3'!E13+'11'!E13+'13'!E13+'14'!E13+'15'!E13+'16'!E13+'17'!E13+'18'!E13+'19'!E13</f>
         <v>0</v>
@@ -4821,7 +4825,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:6" ht="26.25" x14ac:dyDescent="0.25">
       <c r="A14" s="5">
         <v>2682282</v>
       </c>
@@ -5497,7 +5501,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="45" spans="1:6" ht="49.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="45" spans="1:6" ht="26.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="46" spans="1:6" ht="24" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A46" s="66" t="s">
         <v>36</v>
@@ -5558,7 +5562,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="51" spans="1:7" s="2" customFormat="1" ht="29.25" thickBot="1" x14ac:dyDescent="0.5"/>
+    <row r="51" spans="1:7" s="2" customFormat="1" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.5"/>
     <row r="52" spans="1:7" s="2" customFormat="1" ht="29.25" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A52" s="52" t="s">
         <v>47</v>
@@ -5697,7 +5701,7 @@
   <dimension ref="A1:F50"/>
   <sheetViews>
     <sheetView topLeftCell="A10" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A39" sqref="A39:XFD39"/>
+      <selection activeCell="D14" sqref="D14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5813,7 +5817,9 @@
       <c r="C12" s="13">
         <v>10</v>
       </c>
-      <c r="D12" s="30"/>
+      <c r="D12" s="30">
+        <v>174</v>
+      </c>
       <c r="E12" s="15"/>
       <c r="F12" s="7">
         <f t="shared" ref="F12:F43" si="0">C12*D12*E12</f>
@@ -5830,7 +5836,9 @@
       <c r="C13" s="13">
         <v>10</v>
       </c>
-      <c r="D13" s="30"/>
+      <c r="D13" s="30">
+        <v>174</v>
+      </c>
       <c r="E13" s="15"/>
       <c r="F13" s="7">
         <f t="shared" si="0"/>
@@ -6423,7 +6431,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="45" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="45" spans="1:6" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="46" spans="1:6" ht="24" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A46" s="79" t="s">
         <v>36</v>
@@ -6570,7 +6578,7 @@
   <dimension ref="A1:F50"/>
   <sheetViews>
     <sheetView topLeftCell="A4" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A39" sqref="A39:XFD39"/>
+      <selection activeCell="D14" sqref="D14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -6676,7 +6684,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="12" spans="1:6" ht="30" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:6" ht="26.25" x14ac:dyDescent="0.25">
       <c r="A12" s="5">
         <v>2644573</v>
       </c>
@@ -6686,14 +6694,16 @@
       <c r="C12" s="13">
         <v>10</v>
       </c>
-      <c r="D12" s="30"/>
+      <c r="D12" s="30">
+        <v>174</v>
+      </c>
       <c r="E12" s="15"/>
       <c r="F12" s="7">
         <f t="shared" ref="F12:F43" si="0">C12*D12*E12</f>
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:6" ht="30" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:6" ht="26.25" x14ac:dyDescent="0.25">
       <c r="A13" s="5">
         <v>2646698</v>
       </c>
@@ -6703,14 +6713,16 @@
       <c r="C13" s="13">
         <v>10</v>
       </c>
-      <c r="D13" s="30"/>
+      <c r="D13" s="30">
+        <v>174</v>
+      </c>
       <c r="E13" s="15"/>
       <c r="F13" s="7">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:6" ht="26.25" x14ac:dyDescent="0.25">
       <c r="A14" s="5">
         <v>2682282</v>
       </c>
@@ -7296,7 +7308,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="45" spans="1:6" ht="49.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="45" spans="1:6" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="46" spans="1:6" ht="24" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A46" s="79" t="s">
         <v>36</v>
@@ -7443,7 +7455,7 @@
   <dimension ref="A1:F50"/>
   <sheetViews>
     <sheetView topLeftCell="A11" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A39" sqref="A39:XFD39"/>
+      <selection activeCell="D14" sqref="D14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -7549,7 +7561,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="12" spans="1:6" ht="30" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:6" ht="26.25" x14ac:dyDescent="0.25">
       <c r="A12" s="5">
         <v>2644573</v>
       </c>
@@ -7559,14 +7571,16 @@
       <c r="C12" s="13">
         <v>10</v>
       </c>
-      <c r="D12" s="30"/>
+      <c r="D12" s="30">
+        <v>174</v>
+      </c>
       <c r="E12" s="15"/>
       <c r="F12" s="7">
         <f t="shared" ref="F12:F43" si="0">C12*D12*E12</f>
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:6" ht="30" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:6" ht="26.25" x14ac:dyDescent="0.25">
       <c r="A13" s="5">
         <v>2646698</v>
       </c>
@@ -7576,14 +7590,16 @@
       <c r="C13" s="13">
         <v>10</v>
       </c>
-      <c r="D13" s="30"/>
+      <c r="D13" s="30">
+        <v>174</v>
+      </c>
       <c r="E13" s="15"/>
       <c r="F13" s="7">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:6" ht="26.25" x14ac:dyDescent="0.25">
       <c r="A14" s="5">
         <v>2682282</v>
       </c>
@@ -8169,7 +8185,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="45" spans="1:6" ht="49.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="45" spans="1:6" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="46" spans="1:6" ht="24" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A46" s="79" t="s">
         <v>36</v>
@@ -8319,7 +8335,7 @@
   <dimension ref="A1:F50"/>
   <sheetViews>
     <sheetView topLeftCell="A5" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A39" sqref="A39:XFD39"/>
+      <selection activeCell="D14" sqref="D14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -8423,7 +8439,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="12" spans="1:6" ht="26.25" hidden="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:6" ht="26.25" x14ac:dyDescent="0.25">
       <c r="A12" s="5">
         <v>2644573</v>
       </c>
@@ -8433,14 +8449,16 @@
       <c r="C12" s="13">
         <v>10</v>
       </c>
-      <c r="D12" s="30"/>
+      <c r="D12" s="30">
+        <v>174</v>
+      </c>
       <c r="E12" s="15"/>
       <c r="F12" s="7">
         <f t="shared" ref="F12:F43" si="0">C12*D12*E12</f>
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:6" ht="26.25" hidden="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:6" ht="26.25" x14ac:dyDescent="0.25">
       <c r="A13" s="5">
         <v>2646698</v>
       </c>
@@ -8450,14 +8468,16 @@
       <c r="C13" s="13">
         <v>10</v>
       </c>
-      <c r="D13" s="30"/>
+      <c r="D13" s="30">
+        <v>174</v>
+      </c>
       <c r="E13" s="15"/>
       <c r="F13" s="7">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:6" ht="26.25" x14ac:dyDescent="0.25">
       <c r="A14" s="5">
         <v>2682282</v>
       </c>
@@ -9043,7 +9063,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="45" spans="1:6" ht="49.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="45" spans="1:6" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="46" spans="1:6" ht="24" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A46" s="79" t="s">
         <v>36</v>
@@ -9189,7 +9209,7 @@
   <dimension ref="A1:F50"/>
   <sheetViews>
     <sheetView topLeftCell="A8" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A39" sqref="A39:XFD39"/>
+      <selection activeCell="D14" sqref="D14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -9295,7 +9315,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="12" spans="1:6" ht="30" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:6" ht="26.25" x14ac:dyDescent="0.25">
       <c r="A12" s="5">
         <v>2644573</v>
       </c>
@@ -9305,14 +9325,16 @@
       <c r="C12" s="13">
         <v>10</v>
       </c>
-      <c r="D12" s="30"/>
+      <c r="D12" s="30">
+        <v>174</v>
+      </c>
       <c r="E12" s="15"/>
       <c r="F12" s="7">
         <f t="shared" ref="F12:F43" si="0">C12*D12*E12</f>
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:6" ht="30" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:6" ht="26.25" x14ac:dyDescent="0.25">
       <c r="A13" s="5">
         <v>2646698</v>
       </c>
@@ -9322,14 +9344,16 @@
       <c r="C13" s="13">
         <v>10</v>
       </c>
-      <c r="D13" s="30"/>
+      <c r="D13" s="30">
+        <v>174</v>
+      </c>
       <c r="E13" s="15"/>
       <c r="F13" s="7">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:6" ht="26.25" x14ac:dyDescent="0.25">
       <c r="A14" s="5">
         <v>2682282</v>
       </c>
@@ -9915,7 +9939,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="45" spans="1:6" ht="49.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="45" spans="1:6" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="46" spans="1:6" ht="24" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A46" s="79" t="s">
         <v>36</v>
@@ -10062,7 +10086,7 @@
   <dimension ref="A1:F50"/>
   <sheetViews>
     <sheetView topLeftCell="A8" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A39" sqref="A39:XFD39"/>
+      <selection activeCell="D14" sqref="D14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -10168,7 +10192,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="12" spans="1:6" ht="30" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:6" ht="26.25" x14ac:dyDescent="0.25">
       <c r="A12" s="5">
         <v>2644573</v>
       </c>
@@ -10178,14 +10202,16 @@
       <c r="C12" s="13">
         <v>10</v>
       </c>
-      <c r="D12" s="30"/>
+      <c r="D12" s="30">
+        <v>174</v>
+      </c>
       <c r="E12" s="15"/>
       <c r="F12" s="7">
         <f t="shared" ref="F12:F43" si="0">C12*D12*E12</f>
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:6" ht="30" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:6" ht="26.25" x14ac:dyDescent="0.25">
       <c r="A13" s="5">
         <v>2646698</v>
       </c>
@@ -10195,14 +10221,16 @@
       <c r="C13" s="13">
         <v>10</v>
       </c>
-      <c r="D13" s="30"/>
+      <c r="D13" s="30">
+        <v>174</v>
+      </c>
       <c r="E13" s="15"/>
       <c r="F13" s="7">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:6" ht="26.25" x14ac:dyDescent="0.25">
       <c r="A14" s="5">
         <v>2682282</v>
       </c>
@@ -10788,7 +10816,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="45" spans="1:6" ht="49.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="45" spans="1:6" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="46" spans="1:6" ht="24" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A46" s="79" t="s">
         <v>36</v>
@@ -10935,7 +10963,7 @@
   <dimension ref="A1:F50"/>
   <sheetViews>
     <sheetView topLeftCell="A8" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A39" sqref="A39:XFD39"/>
+      <selection activeCell="D14" sqref="D14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -11041,7 +11069,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="12" spans="1:6" ht="30" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:6" ht="26.25" x14ac:dyDescent="0.25">
       <c r="A12" s="5">
         <v>2644573</v>
       </c>
@@ -11051,14 +11079,16 @@
       <c r="C12" s="13">
         <v>10</v>
       </c>
-      <c r="D12" s="30"/>
+      <c r="D12" s="30">
+        <v>174</v>
+      </c>
       <c r="E12" s="15"/>
       <c r="F12" s="7">
         <f t="shared" ref="F12:F43" si="0">C12*D12*E12</f>
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:6" ht="30" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:6" ht="26.25" x14ac:dyDescent="0.25">
       <c r="A13" s="5">
         <v>2646698</v>
       </c>
@@ -11068,14 +11098,16 @@
       <c r="C13" s="13">
         <v>10</v>
       </c>
-      <c r="D13" s="30"/>
+      <c r="D13" s="30">
+        <v>174</v>
+      </c>
       <c r="E13" s="15"/>
       <c r="F13" s="7">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:6" ht="26.25" x14ac:dyDescent="0.25">
       <c r="A14" s="5">
         <v>2682282</v>
       </c>
@@ -11661,7 +11693,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="45" spans="1:6" ht="49.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="45" spans="1:6" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="46" spans="1:6" ht="24" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A46" s="79" t="s">
         <v>36</v>
@@ -11808,7 +11840,7 @@
   <dimension ref="A1:F50"/>
   <sheetViews>
     <sheetView topLeftCell="A8" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A39" sqref="A39:XFD39"/>
+      <selection activeCell="D14" sqref="D14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -11914,7 +11946,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="12" spans="1:6" ht="30" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:6" ht="26.25" x14ac:dyDescent="0.25">
       <c r="A12" s="5">
         <v>2644573</v>
       </c>
@@ -11924,14 +11956,16 @@
       <c r="C12" s="13">
         <v>10</v>
       </c>
-      <c r="D12" s="30"/>
+      <c r="D12" s="30">
+        <v>174</v>
+      </c>
       <c r="E12" s="15"/>
       <c r="F12" s="7">
         <f t="shared" ref="F12:F43" si="0">C12*D12*E12</f>
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:6" ht="30" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:6" ht="26.25" x14ac:dyDescent="0.25">
       <c r="A13" s="5">
         <v>2646698</v>
       </c>
@@ -11941,14 +11975,16 @@
       <c r="C13" s="13">
         <v>10</v>
       </c>
-      <c r="D13" s="30"/>
+      <c r="D13" s="30">
+        <v>174</v>
+      </c>
       <c r="E13" s="15"/>
       <c r="F13" s="7">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:6" ht="26.25" x14ac:dyDescent="0.25">
       <c r="A14" s="5">
         <v>2682282</v>
       </c>
@@ -12534,7 +12570,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="45" spans="1:6" ht="49.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="45" spans="1:6" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="46" spans="1:6" ht="24" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A46" s="79" t="s">
         <v>36</v>
@@ -12681,7 +12717,7 @@
   <dimension ref="A1:F50"/>
   <sheetViews>
     <sheetView topLeftCell="A5" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A39" sqref="A39:XFD39"/>
+      <selection activeCell="D14" sqref="D14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -12787,7 +12823,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="12" spans="1:6" ht="30" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:6" ht="26.25" x14ac:dyDescent="0.25">
       <c r="A12" s="5">
         <v>2644573</v>
       </c>
@@ -12797,14 +12833,16 @@
       <c r="C12" s="13">
         <v>10</v>
       </c>
-      <c r="D12" s="30"/>
+      <c r="D12" s="30">
+        <v>174</v>
+      </c>
       <c r="E12" s="15"/>
       <c r="F12" s="7">
         <f t="shared" ref="F12:F43" si="0">C12*D12*E12</f>
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:6" ht="30" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:6" ht="26.25" x14ac:dyDescent="0.25">
       <c r="A13" s="5">
         <v>2646698</v>
       </c>
@@ -12814,14 +12852,16 @@
       <c r="C13" s="13">
         <v>10</v>
       </c>
-      <c r="D13" s="30"/>
+      <c r="D13" s="30">
+        <v>174</v>
+      </c>
       <c r="E13" s="15"/>
       <c r="F13" s="7">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:6" ht="26.25" x14ac:dyDescent="0.25">
       <c r="A14" s="5">
         <v>2682282</v>
       </c>
@@ -13407,7 +13447,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="45" spans="1:6" ht="49.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="45" spans="1:6" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="46" spans="1:6" ht="24" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A46" s="79" t="s">
         <v>36</v>
@@ -13554,7 +13594,7 @@
   <dimension ref="A1:F50"/>
   <sheetViews>
     <sheetView topLeftCell="A8" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A39" sqref="A39:XFD39"/>
+      <selection activeCell="D14" sqref="D14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -13660,7 +13700,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="12" spans="1:6" ht="30" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:6" ht="26.25" x14ac:dyDescent="0.25">
       <c r="A12" s="5">
         <v>2644573</v>
       </c>
@@ -13670,14 +13710,16 @@
       <c r="C12" s="13">
         <v>10</v>
       </c>
-      <c r="D12" s="30"/>
+      <c r="D12" s="30">
+        <v>174</v>
+      </c>
       <c r="E12" s="15"/>
       <c r="F12" s="7">
         <f t="shared" ref="F12:F43" si="0">C12*D12*E12</f>
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:6" ht="30" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:6" ht="26.25" x14ac:dyDescent="0.25">
       <c r="A13" s="5">
         <v>2646698</v>
       </c>
@@ -13687,14 +13729,16 @@
       <c r="C13" s="13">
         <v>10</v>
       </c>
-      <c r="D13" s="30"/>
+      <c r="D13" s="30">
+        <v>174</v>
+      </c>
       <c r="E13" s="15"/>
       <c r="F13" s="7">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:6" ht="26.25" x14ac:dyDescent="0.25">
       <c r="A14" s="5">
         <v>2682282</v>
       </c>
@@ -14280,7 +14324,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="45" spans="1:6" ht="49.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="45" spans="1:6" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="46" spans="1:6" ht="24" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A46" s="79" t="s">
         <v>36</v>
@@ -14429,8 +14473,8 @@
   </sheetPr>
   <dimension ref="A1:F50"/>
   <sheetViews>
-    <sheetView topLeftCell="A47" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A39" sqref="A39:XFD39"/>
+    <sheetView topLeftCell="A44" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="D14" sqref="D14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -14536,7 +14580,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="12" spans="1:6" ht="30" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:6" ht="26.25" x14ac:dyDescent="0.25">
       <c r="A12" s="5">
         <v>2644573</v>
       </c>
@@ -14546,14 +14590,16 @@
       <c r="C12" s="13">
         <v>10</v>
       </c>
-      <c r="D12" s="30"/>
+      <c r="D12" s="30">
+        <v>174</v>
+      </c>
       <c r="E12" s="15"/>
       <c r="F12" s="7">
         <f t="shared" ref="F12:F43" si="0">C12*D12*E12</f>
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:6" ht="30" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:6" ht="26.25" x14ac:dyDescent="0.25">
       <c r="A13" s="5">
         <v>2646698</v>
       </c>
@@ -14563,14 +14609,16 @@
       <c r="C13" s="13">
         <v>10</v>
       </c>
-      <c r="D13" s="30"/>
+      <c r="D13" s="30">
+        <v>174</v>
+      </c>
       <c r="E13" s="15"/>
       <c r="F13" s="7">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:6" ht="26.25" x14ac:dyDescent="0.25">
       <c r="A14" s="5">
         <v>2682282</v>
       </c>
@@ -15156,7 +15204,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="45" spans="1:6" ht="49.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="45" spans="1:6" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="46" spans="1:6" ht="24" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A46" s="79" t="s">
         <v>36</v>
@@ -15303,7 +15351,7 @@
   <dimension ref="A1:F50"/>
   <sheetViews>
     <sheetView topLeftCell="A8" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A39" sqref="A39:XFD39"/>
+      <selection activeCell="D14" sqref="D14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -15406,7 +15454,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="12" spans="1:6" ht="30" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:6" ht="26.25" x14ac:dyDescent="0.25">
       <c r="A12" s="5">
         <v>2644573</v>
       </c>
@@ -15416,14 +15464,16 @@
       <c r="C12" s="13">
         <v>10</v>
       </c>
-      <c r="D12" s="30"/>
+      <c r="D12" s="30">
+        <v>174</v>
+      </c>
       <c r="E12" s="15"/>
       <c r="F12" s="7">
         <f t="shared" ref="F12:F43" si="0">C12*D12*E12</f>
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:6" ht="30" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:6" ht="26.25" x14ac:dyDescent="0.25">
       <c r="A13" s="5">
         <v>2646698</v>
       </c>
@@ -15433,14 +15483,16 @@
       <c r="C13" s="13">
         <v>10</v>
       </c>
-      <c r="D13" s="30"/>
+      <c r="D13" s="30">
+        <v>174</v>
+      </c>
       <c r="E13" s="15"/>
       <c r="F13" s="7">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:6" ht="26.25" x14ac:dyDescent="0.25">
       <c r="A14" s="5">
         <v>2682282</v>
       </c>
@@ -16026,7 +16078,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="45" spans="1:6" ht="49.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="45" spans="1:6" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="46" spans="1:6" ht="24" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A46" s="79" t="s">
         <v>36</v>
@@ -16176,7 +16228,7 @@
   <dimension ref="A1:F50"/>
   <sheetViews>
     <sheetView topLeftCell="A7" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A39" sqref="A39:XFD39"/>
+      <selection activeCell="D14" sqref="D14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -16282,7 +16334,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="12" spans="1:6" ht="26.25" hidden="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:6" ht="26.25" x14ac:dyDescent="0.25">
       <c r="A12" s="5">
         <v>2644573</v>
       </c>
@@ -16292,14 +16344,16 @@
       <c r="C12" s="13">
         <v>10</v>
       </c>
-      <c r="D12" s="30"/>
+      <c r="D12" s="30">
+        <v>174</v>
+      </c>
       <c r="E12" s="15"/>
       <c r="F12" s="7">
         <f t="shared" ref="F12:F43" si="0">C12*D12*E12</f>
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:6" ht="26.25" hidden="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:6" ht="26.25" x14ac:dyDescent="0.25">
       <c r="A13" s="5">
         <v>2646698</v>
       </c>
@@ -16309,14 +16363,16 @@
       <c r="C13" s="13">
         <v>10</v>
       </c>
-      <c r="D13" s="30"/>
+      <c r="D13" s="30">
+        <v>174</v>
+      </c>
       <c r="E13" s="15"/>
       <c r="F13" s="7">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:6" ht="26.25" x14ac:dyDescent="0.25">
       <c r="A14" s="5">
         <v>2682282</v>
       </c>
@@ -16902,7 +16958,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="45" spans="1:6" ht="49.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="45" spans="1:6" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="46" spans="1:6" ht="24" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A46" s="79" t="s">
         <v>36</v>
@@ -17052,7 +17108,7 @@
   <dimension ref="A1:F50"/>
   <sheetViews>
     <sheetView topLeftCell="A5" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A39" sqref="A39:XFD39"/>
+      <selection activeCell="D14" sqref="D14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -17158,7 +17214,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="12" spans="1:6" ht="30" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:6" ht="26.25" x14ac:dyDescent="0.25">
       <c r="A12" s="5">
         <v>2644573</v>
       </c>
@@ -17168,14 +17224,16 @@
       <c r="C12" s="13">
         <v>10</v>
       </c>
-      <c r="D12" s="30"/>
+      <c r="D12" s="30">
+        <v>174</v>
+      </c>
       <c r="E12" s="15"/>
       <c r="F12" s="7">
         <f t="shared" ref="F12:F43" si="0">C12*D12*E12</f>
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:6" ht="30" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:6" ht="26.25" x14ac:dyDescent="0.25">
       <c r="A13" s="5">
         <v>2646698</v>
       </c>
@@ -17185,14 +17243,16 @@
       <c r="C13" s="13">
         <v>10</v>
       </c>
-      <c r="D13" s="30"/>
+      <c r="D13" s="30">
+        <v>174</v>
+      </c>
       <c r="E13" s="15"/>
       <c r="F13" s="7">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:6" ht="26.25" x14ac:dyDescent="0.25">
       <c r="A14" s="5">
         <v>2682282</v>
       </c>
@@ -17778,7 +17838,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="45" spans="1:6" ht="49.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="45" spans="1:6" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="46" spans="1:6" ht="24" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A46" s="79" t="s">
         <v>36</v>
@@ -17928,7 +17988,7 @@
   <dimension ref="A1:F50"/>
   <sheetViews>
     <sheetView topLeftCell="A5" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A39" sqref="A39:XFD39"/>
+      <selection activeCell="D14" sqref="D14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -18034,7 +18094,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="12" spans="1:6" ht="30" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:6" ht="26.25" x14ac:dyDescent="0.25">
       <c r="A12" s="5">
         <v>2644573</v>
       </c>
@@ -18044,14 +18104,16 @@
       <c r="C12" s="13">
         <v>10</v>
       </c>
-      <c r="D12" s="30"/>
+      <c r="D12" s="30">
+        <v>174</v>
+      </c>
       <c r="E12" s="15"/>
       <c r="F12" s="7">
         <f t="shared" ref="F12:F43" si="0">C12*D12*E12</f>
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:6" ht="30" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:6" ht="26.25" x14ac:dyDescent="0.25">
       <c r="A13" s="5">
         <v>2646698</v>
       </c>
@@ -18061,14 +18123,16 @@
       <c r="C13" s="13">
         <v>10</v>
       </c>
-      <c r="D13" s="30"/>
+      <c r="D13" s="30">
+        <v>174</v>
+      </c>
       <c r="E13" s="15"/>
       <c r="F13" s="7">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:6" ht="26.25" x14ac:dyDescent="0.25">
       <c r="A14" s="5">
         <v>2682282</v>
       </c>
@@ -18654,7 +18718,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="45" spans="1:6" ht="49.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="45" spans="1:6" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="46" spans="1:6" ht="24" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A46" s="79" t="s">
         <v>36</v>
@@ -18804,7 +18868,7 @@
   <dimension ref="A1:F50"/>
   <sheetViews>
     <sheetView topLeftCell="A4" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A39" sqref="A39:XFD39"/>
+      <selection activeCell="D14" sqref="D14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -18910,7 +18974,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="12" spans="1:6" ht="30" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:6" ht="26.25" x14ac:dyDescent="0.25">
       <c r="A12" s="5">
         <v>2644573</v>
       </c>
@@ -18920,14 +18984,16 @@
       <c r="C12" s="13">
         <v>10</v>
       </c>
-      <c r="D12" s="30"/>
+      <c r="D12" s="30">
+        <v>174</v>
+      </c>
       <c r="E12" s="15"/>
       <c r="F12" s="7">
         <f t="shared" ref="F12:F43" si="0">C12*D12*E12</f>
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:6" ht="30" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:6" ht="26.25" x14ac:dyDescent="0.25">
       <c r="A13" s="5">
         <v>2646698</v>
       </c>
@@ -18937,14 +19003,16 @@
       <c r="C13" s="13">
         <v>10</v>
       </c>
-      <c r="D13" s="30"/>
+      <c r="D13" s="30">
+        <v>174</v>
+      </c>
       <c r="E13" s="15"/>
       <c r="F13" s="7">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:6" ht="26.25" x14ac:dyDescent="0.25">
       <c r="A14" s="5">
         <v>2682282</v>
       </c>
@@ -19530,7 +19598,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="45" spans="1:6" ht="49.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="45" spans="1:6" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="46" spans="1:6" ht="24" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A46" s="79" t="s">
         <v>36</v>
@@ -19680,7 +19748,7 @@
   <dimension ref="A1:F50"/>
   <sheetViews>
     <sheetView topLeftCell="A5" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A39" sqref="A39:XFD39"/>
+      <selection activeCell="D14" sqref="D14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -19789,7 +19857,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="12" spans="1:6" ht="30" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:6" ht="26.25" x14ac:dyDescent="0.25">
       <c r="A12" s="5">
         <v>2644573</v>
       </c>
@@ -19799,14 +19867,16 @@
       <c r="C12" s="13">
         <v>10</v>
       </c>
-      <c r="D12" s="30"/>
+      <c r="D12" s="30">
+        <v>174</v>
+      </c>
       <c r="E12" s="15"/>
       <c r="F12" s="7">
         <f t="shared" ref="F12:F43" si="0">C12*D12*E12</f>
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:6" ht="30" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:6" ht="26.25" x14ac:dyDescent="0.25">
       <c r="A13" s="5">
         <v>2646698</v>
       </c>
@@ -19816,14 +19886,16 @@
       <c r="C13" s="13">
         <v>10</v>
       </c>
-      <c r="D13" s="30"/>
+      <c r="D13" s="30">
+        <v>174</v>
+      </c>
       <c r="E13" s="15"/>
       <c r="F13" s="7">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:6" ht="26.25" x14ac:dyDescent="0.25">
       <c r="A14" s="5">
         <v>2682282</v>
       </c>
@@ -20409,7 +20481,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="45" spans="1:6" ht="49.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="45" spans="1:6" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="46" spans="1:6" ht="24" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A46" s="79" t="s">
         <v>36</v>
@@ -20558,7 +20630,7 @@
   <dimension ref="A1:F50"/>
   <sheetViews>
     <sheetView topLeftCell="A8" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A39" sqref="A39:XFD39"/>
+      <selection activeCell="D14" sqref="D14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -20664,7 +20736,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="12" spans="1:6" ht="30" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:6" ht="26.25" x14ac:dyDescent="0.25">
       <c r="A12" s="5">
         <v>2644573</v>
       </c>
@@ -20674,14 +20746,16 @@
       <c r="C12" s="13">
         <v>10</v>
       </c>
-      <c r="D12" s="30"/>
+      <c r="D12" s="30">
+        <v>174</v>
+      </c>
       <c r="E12" s="15"/>
       <c r="F12" s="7">
         <f t="shared" ref="F12:F43" si="0">C12*D12*E12</f>
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:6" ht="30" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:6" ht="26.25" x14ac:dyDescent="0.25">
       <c r="A13" s="5">
         <v>2646698</v>
       </c>
@@ -20691,14 +20765,16 @@
       <c r="C13" s="13">
         <v>10</v>
       </c>
-      <c r="D13" s="30"/>
+      <c r="D13" s="30">
+        <v>174</v>
+      </c>
       <c r="E13" s="15"/>
       <c r="F13" s="7">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:6" ht="26.25" x14ac:dyDescent="0.25">
       <c r="A14" s="5">
         <v>2682282</v>
       </c>
@@ -21284,7 +21360,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="45" spans="1:6" ht="49.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="45" spans="1:6" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="46" spans="1:6" ht="24" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A46" s="79" t="s">
         <v>36</v>
@@ -21434,7 +21510,7 @@
   <dimension ref="A1:F50"/>
   <sheetViews>
     <sheetView topLeftCell="A8" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A39" sqref="A39:XFD39"/>
+      <selection activeCell="D14" sqref="D14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -21540,7 +21616,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="12" spans="1:6" ht="26.25" hidden="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:6" ht="26.25" x14ac:dyDescent="0.25">
       <c r="A12" s="5">
         <v>2644573</v>
       </c>
@@ -21550,14 +21626,16 @@
       <c r="C12" s="13">
         <v>10</v>
       </c>
-      <c r="D12" s="30"/>
+      <c r="D12" s="30">
+        <v>174</v>
+      </c>
       <c r="E12" s="15"/>
       <c r="F12" s="7">
         <f t="shared" ref="F12:F43" si="0">C12*D12*E12</f>
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:6" ht="26.25" hidden="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:6" ht="26.25" x14ac:dyDescent="0.25">
       <c r="A13" s="5">
         <v>2646698</v>
       </c>
@@ -21567,14 +21645,16 @@
       <c r="C13" s="13">
         <v>10</v>
       </c>
-      <c r="D13" s="30"/>
+      <c r="D13" s="30">
+        <v>174</v>
+      </c>
       <c r="E13" s="15"/>
       <c r="F13" s="7">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:6" ht="26.25" x14ac:dyDescent="0.25">
       <c r="A14" s="5">
         <v>2682282</v>
       </c>
@@ -22160,7 +22240,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="45" spans="1:6" ht="49.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="45" spans="1:6" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="46" spans="1:6" ht="24" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A46" s="79" t="s">
         <v>36</v>
